--- a/VTTEFantasyPredictions2019.xlsx
+++ b/VTTEFantasyPredictions2019.xlsx
@@ -385,7 +385,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.8589477539062</v>
+        <v>177.4463195800781</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.6382904052734</v>
+        <v>171.2669982910156</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.8051605224609</v>
+        <v>157.0568542480469</v>
       </c>
     </row>
     <row r="5">
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128.3246002197266</v>
+        <v>132.7535095214844</v>
       </c>
     </row>
     <row r="6">
@@ -425,17 +425,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119.7983016967773</v>
+        <v>126.5474243164062</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Eric Ebron</t>
+          <t>Jesse James</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111.2735366821289</v>
+        <v>121.1566619873047</v>
       </c>
     </row>
     <row r="8">
@@ -445,127 +445,127 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.6673355102539</v>
+        <v>105.3786010742188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>David Njoku</t>
+          <t>Kyle Rudolph</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.5193710327148</v>
+        <v>96.59654235839844</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Jimmy Graham</t>
+          <t>David Njoku</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.52417755126953</v>
+        <v>93.64500427246094</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Jesse James</t>
+          <t>Austin Hooper</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.97397613525391</v>
+        <v>92.53510284423828</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Austin Hooper</t>
+          <t>Trey Burton</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.47661590576172</v>
+        <v>92.0191650390625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Ian Thomas</t>
+          <t>Eric Ebron</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.02950286865234</v>
+        <v>91.27339935302734</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Kyle Rudolph</t>
+          <t>Ian Thomas</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.58449554443359</v>
+        <v>85.16829681396484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Jonnu Smith</t>
+          <t>Vance McDonald</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75.87836456298828</v>
+        <v>84.72116851806641</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Vance McDonald</t>
+          <t>C.J. Uzomah</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.92916870117188</v>
+        <v>84.42744445800781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ricky Seals-Jones</t>
+          <t>Jimmy Graham</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74.09981536865234</v>
+        <v>84.13215637207031</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rob Gronkowski</t>
+          <t>Blake Jarwin</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.54840850830078</v>
+        <v>80.61409759521484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Trey Burton</t>
+          <t>Jonnu Smith</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.14797973632812</v>
+        <v>77.82109832763672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>C.J. Uzomah</t>
+          <t>Rob Gronkowski</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.27682495117188</v>
+        <v>77.50187683105469</v>
       </c>
     </row>
     <row r="21">
@@ -575,157 +575,157 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.50547790527344</v>
+        <v>75.36314392089844</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Ben Watson</t>
+          <t>Anthony Firkser</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.09819793701172</v>
+        <v>74.36012268066406</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Jordan Reed</t>
+          <t>Gerald Everett</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.57609558105469</v>
+        <v>71.93801879882812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Antonio Gates</t>
+          <t>Tyler Higbee</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.24718475341797</v>
+        <v>65.48708343505859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Jordan Thomas</t>
+          <t>Ricky Seals-Jones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.17431259155273</v>
+        <v>62.72064208984375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Anthony Firkser</t>
+          <t>Jordan Reed</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.42113494873047</v>
+        <v>62.45000457763672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Gerald Everett</t>
+          <t>Jordan Thomas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.03651809692383</v>
+        <v>58.56928253173828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Blake Jarwin</t>
+          <t>Mike Gesicki</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.4095573425293</v>
+        <v>51.95332717895508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Vernon Davis</t>
+          <t>Jason Croom</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.83483505249023</v>
+        <v>51.13806915283203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Mike Gesicki</t>
+          <t>Maxx Williams</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.82930374145508</v>
+        <v>46.12771224975586</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Jason Croom</t>
+          <t>Vernon Davis</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.17328262329102</v>
+        <v>43.40564727783203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Cameron Brate</t>
+          <t>James O'Shaughnessy</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>42.06957244873047</v>
+        <v>43.30754852294922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Marcedes Lewis</t>
+          <t>Ben Watson</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>41.80559921264648</v>
+        <v>43.07503509521484</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Nick Vannett</t>
+          <t>Hayden Hurst</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.60989761352539</v>
+        <v>42.03911590576172</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Tyler Higbee</t>
+          <t>Tyler Conklin</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.56600952148438</v>
+        <v>40.57328033447266</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Maxx Williams</t>
+          <t>Antonio Gates</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.7383918762207</v>
+        <v>40.51640701293945</v>
       </c>
     </row>
     <row r="37">
@@ -735,437 +735,437 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.59406280517578</v>
+        <v>40.00828552246094</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Tyler Conklin</t>
+          <t>Nick Vannett</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37.2703742980957</v>
+        <v>39.13779449462891</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Nick Boyle</t>
+          <t>Jordan Akins</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36.28935623168945</v>
+        <v>37.10861206054688</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Jordan Akins</t>
+          <t>Nick Boyle</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.98212814331055</v>
+        <v>36.0570068359375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Hayden Hurst</t>
+          <t>Matt LaCosse</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.89043807983398</v>
+        <v>35.50565338134766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>James O'Shaughnessy</t>
+          <t>Jordan Leggett</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.63783645629883</v>
+        <v>35.19805145263672</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rhett Ellison</t>
+          <t>Durham Smythe</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.23797225952148</v>
+        <v>34.98300552368164</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Jordan Leggett</t>
+          <t>Levine Toilolo</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.96398544311523</v>
+        <v>32.88996124267578</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Darren Fells</t>
+          <t>Eric Saubert</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.62846755981445</v>
+        <v>31.98589134216309</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Durham Smythe</t>
+          <t>Charles Clay</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.52980422973633</v>
+        <v>31.87825965881348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Levine Toilolo</t>
+          <t>Rico Gathers</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>32.01561737060547</v>
+        <v>31.73935508728027</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Matt LaCosse</t>
+          <t>Ben Braunecker</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30.85775566101074</v>
+        <v>31.45110511779785</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Eric Saubert</t>
+          <t>Rhett Ellison</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>30.75377464294434</v>
+        <v>30.76998519897461</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Charles Clay</t>
+          <t>Sean Culkin</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>30.73948669433594</v>
+        <v>30.20979690551758</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Logan Paulsen</t>
+          <t>Cameron Brate</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>29.49276542663574</v>
+        <v>29.14500999450684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Nick O'Leary</t>
+          <t>Robert Tonyan</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29.34674453735352</v>
+        <v>29.08946228027344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Virgil Green</t>
+          <t>Jermaine Gresham</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>29.07533073425293</v>
+        <v>28.930908203125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Jermaine Gresham</t>
+          <t>Seth Devalve</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>29.04429817199707</v>
+        <v>28.27810287475586</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Rico Gathers</t>
+          <t>Antony Auclair</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>28.84199333190918</v>
+        <v>27.79811668395996</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Robert Tonyan</t>
+          <t>Logan Thomas</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28.78930854797363</v>
+        <v>27.64570617675781</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Ben Braunecker</t>
+          <t>Brian Parker</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>28.67296028137207</v>
+        <v>27.64280700683594</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Seth Devalve</t>
+          <t>Xavier Grimble</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>28.56550788879395</v>
+        <v>27.62120056152344</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Sean Culkin</t>
+          <t>Alan Cross</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>28.53308486938477</v>
+        <v>27.5225715637207</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Logan Thomas</t>
+          <t>Eric Tomlinson</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>27.44418525695801</v>
+        <v>27.32008743286133</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Antony Auclair</t>
+          <t>Luke Willson</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>27.35431861877441</v>
+        <v>27.26738548278809</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Xavier Grimble</t>
+          <t>Nick O'Leary</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>27.24311637878418</v>
+        <v>26.69379806518555</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Lance Kendricks</t>
+          <t>Jeremy Sprinkle</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>27.02682304382324</v>
+        <v>24.93721961975098</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Lee Smith</t>
+          <t>Marcedes Lewis</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26.15106391906738</v>
+        <v>24.36197662353516</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Jeremy Sprinkle</t>
+          <t>MyCole Pruitt</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25.77448654174805</v>
+        <v>23.78725242614746</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Brian Parker</t>
+          <t>Orson Charles</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25.69298934936523</v>
+        <v>23.6095027923584</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Luke Stocker</t>
+          <t>Logan Paulsen</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>25.4747142791748</v>
+        <v>23.36953163146973</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Alan Cross</t>
+          <t>Chris Manhertz</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25.09199714660645</v>
+        <v>23.14024543762207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ryan Hewitt</t>
+          <t>Dwayne Allen</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24.19303703308105</v>
+        <v>22.88001441955566</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Eric Tomlinson</t>
+          <t>Scott Simonson</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24.02909088134766</v>
+        <v>22.59341049194336</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Josh Hill</t>
+          <t>Garrett Celek</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23.31189727783203</v>
+        <v>21.8735237121582</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Garrett Celek</t>
+          <t>Josh Hill</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>22.94952964782715</v>
+        <v>20.85855293273926</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Orson Charles</t>
+          <t>Darren Fells</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>22.68271827697754</v>
+        <v>20.38971328735352</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Luke Willson</t>
+          <t>Derek Carrier</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.34889984130859</v>
+        <v>19.08210372924805</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Dwayne Allen</t>
+          <t>Demetrius Harris</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21.79788017272949</v>
+        <v>18.69097518920898</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Scott Simonson</t>
+          <t>Virgil Green</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>21.46429824829102</v>
+        <v>18.53753662109375</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>MyCole Pruitt</t>
+          <t>Lee Smith</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20.90336418151855</v>
+        <v>18.30070304870605</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Chris Manhertz</t>
+          <t>Luke Stocker</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>20.89961814880371</v>
+        <v>18.03000831604004</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Derek Carrier</t>
+          <t>Ryan Hewitt</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>17.96295928955078</v>
+        <v>17.16582489013672</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Demetrius Harris</t>
+          <t>Lance Kendricks</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>15.43804454803467</v>
+        <v>17.06939888000488</v>
       </c>
     </row>
   </sheetData>
